--- a/Results/DAHFJS.xlsx
+++ b/Results/DAHFJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\shj\result\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\idm下载\Compressed\Instances-and-Results-for-e-FJSSP-master\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12570C58-7D42-4295-A313-B9863C98CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E539E7-BE51-4997-BA0F-8D2EB70FC336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="MILPV" sheetId="1" r:id="rId1"/>
@@ -323,9 +323,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -357,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -365,11 +366,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,12 +414,60 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -724,45 +802,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -785,7 +863,7 @@
       <c r="G3" s="3">
         <v>2.34</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>3600.1</v>
       </c>
       <c r="J3" s="2"/>
@@ -822,7 +900,7 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>36.14</v>
       </c>
       <c r="J4" s="2"/>
@@ -859,7 +937,7 @@
       <c r="G5" s="3">
         <v>5.12</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>3600.26</v>
       </c>
       <c r="J5" s="2"/>
@@ -896,7 +974,7 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>864.09</v>
       </c>
       <c r="J6" s="2"/>
@@ -933,7 +1011,7 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>1060.94</v>
       </c>
       <c r="J7" s="2"/>
@@ -970,7 +1048,7 @@
       <c r="G8" s="3">
         <v>25.5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>3600.28</v>
       </c>
       <c r="J8" s="2"/>
@@ -1007,7 +1085,7 @@
       <c r="G9" s="3">
         <v>29.79</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>3600.23</v>
       </c>
       <c r="J9" s="2"/>
@@ -1044,7 +1122,7 @@
       <c r="G10" s="3">
         <v>23.98</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>3600.11</v>
       </c>
       <c r="J10" s="2"/>
@@ -1081,7 +1159,7 @@
       <c r="G11" s="3">
         <v>89.2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>3600.31</v>
       </c>
       <c r="J11" s="2"/>
@@ -1118,7 +1196,7 @@
       <c r="G12" s="3">
         <v>99.54</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>3600.11</v>
       </c>
       <c r="J12" s="2"/>
@@ -1155,7 +1233,7 @@
       <c r="G13" s="3">
         <v>4.38</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>3600.28</v>
       </c>
       <c r="J13" s="2"/>
@@ -1192,7 +1270,7 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>76.34</v>
       </c>
       <c r="J14" s="2"/>
@@ -1229,7 +1307,7 @@
       <c r="G15" s="3">
         <v>5.51</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>3600.39</v>
       </c>
       <c r="J15" s="2"/>
@@ -1266,7 +1344,7 @@
       <c r="G16" s="3">
         <v>19.41</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>3600.39</v>
       </c>
       <c r="J16" s="2"/>
@@ -1303,7 +1381,7 @@
       <c r="G17" s="3">
         <v>27.4</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>3600.26</v>
       </c>
       <c r="J17" s="2"/>
@@ -1340,7 +1418,7 @@
       <c r="G18" s="3">
         <v>2.79</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>3600.43</v>
       </c>
       <c r="J18" s="2"/>
@@ -1377,7 +1455,7 @@
       <c r="G19" s="3">
         <v>21.77</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>3600.02</v>
       </c>
       <c r="J19" s="2"/>
@@ -1414,7 +1492,7 @@
       <c r="G20" s="3">
         <v>39.97</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>3600.11</v>
       </c>
       <c r="J20" s="2"/>
@@ -1451,7 +1529,7 @@
       <c r="G21" s="3">
         <v>48.64</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>3600.05</v>
       </c>
       <c r="J21" s="2"/>
@@ -1488,7 +1566,7 @@
       <c r="G22" s="3">
         <v>90.21</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>3600.35</v>
       </c>
       <c r="J22" s="2"/>
@@ -1525,7 +1603,7 @@
       <c r="G23" s="3">
         <v>99.35</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>3600.22</v>
       </c>
       <c r="J23" s="2"/>
@@ -1562,7 +1640,7 @@
       <c r="G24" s="3">
         <v>1.67</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>3600.4</v>
       </c>
       <c r="J24" s="2"/>
@@ -1599,7 +1677,7 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>1842.2</v>
       </c>
       <c r="J25" s="2"/>
@@ -1636,7 +1714,7 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>98.08</v>
       </c>
       <c r="J26" s="2"/>
@@ -1673,7 +1751,7 @@
       <c r="G27" s="3">
         <v>15.07</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>3600.2</v>
       </c>
       <c r="J27" s="2"/>
@@ -1710,7 +1788,7 @@
       <c r="G28" s="3">
         <v>25.82</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>3600.08</v>
       </c>
       <c r="J28" s="2"/>
@@ -1747,7 +1825,7 @@
       <c r="G29" s="3">
         <v>78.19</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>3600.06</v>
       </c>
       <c r="J29" s="2"/>
@@ -1784,7 +1862,7 @@
       <c r="G30" s="3">
         <v>87.86</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>3600.24</v>
       </c>
       <c r="J30" s="2"/>
@@ -1821,7 +1899,7 @@
       <c r="G31" s="3">
         <v>96.8</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>3600.33</v>
       </c>
       <c r="J31" s="2"/>
@@ -1858,7 +1936,7 @@
       <c r="G32" s="3">
         <v>1.61</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>3600.19</v>
       </c>
       <c r="J32" s="2"/>
@@ -1895,7 +1973,7 @@
       <c r="G33" s="3">
         <v>5.3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>3600.07</v>
       </c>
       <c r="J33" s="2"/>
@@ -1932,7 +2010,7 @@
       <c r="G34" s="3">
         <v>11.3</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>3600.05</v>
       </c>
       <c r="J34" s="2"/>
@@ -1969,7 +2047,7 @@
       <c r="G35" s="3">
         <v>15.87</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>3600.01</v>
       </c>
       <c r="J35" s="2"/>
@@ -2006,7 +2084,7 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>2902.46</v>
       </c>
       <c r="J36" s="2"/>
@@ -2043,7 +2121,7 @@
       <c r="G37" s="3">
         <v>77.91</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <v>3600.18</v>
       </c>
       <c r="J37" s="2"/>
@@ -2080,7 +2158,7 @@
       <c r="G38" s="3">
         <v>27.81</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="3">
         <v>3600.12</v>
       </c>
       <c r="J38" s="2"/>
@@ -2117,7 +2195,7 @@
       <c r="G39" s="3">
         <v>78.34</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>3600.18</v>
       </c>
       <c r="J39" s="2"/>
@@ -2154,7 +2232,7 @@
       <c r="G40" s="3">
         <v>90.34</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="3">
         <v>3600.24</v>
       </c>
       <c r="J40" s="2"/>
@@ -2191,7 +2269,7 @@
       <c r="G41" s="3">
         <v>91.81</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>3600.25</v>
       </c>
       <c r="J41" s="2"/>
@@ -2210,25 +2288,26 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>5.01</v>
       </c>
-      <c r="E42" s="2">
+      <c r="D42" s="6"/>
+      <c r="E42" s="7">
         <v>67419</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="7">
         <v>3364.8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="8">
         <v>95.01</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="8">
         <v>3600.16</v>
       </c>
       <c r="J42" s="2"/>
@@ -2247,18 +2326,19 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8">
         <f>AVERAGE(G3:G42)</f>
         <v>35.890249999999995</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="8">
         <f>AVERAGE(H3:H42)</f>
         <v>3142.1727500000002</v>
       </c>
@@ -2343,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99861648-BB0B-4C37-87B5-A5A9F2975E8D}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2355,68 +2435,72 @@
     <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="1"/>
+    <col min="8" max="8" width="10.90625" style="18"/>
+    <col min="9" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="10"/>
+      <c r="E3" s="12">
         <v>806</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="12">
         <v>417</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="13">
         <v>41.56</v>
       </c>
-      <c r="H3" s="2">
-        <v>3600</v>
+      <c r="H3" s="18">
+        <v>3600.04</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2448,8 +2532,8 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
+      <c r="H4" s="18">
+        <v>0.55000000000000004</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2481,8 +2565,8 @@
       <c r="G5" s="3">
         <v>65.45</v>
       </c>
-      <c r="H5" s="2">
-        <v>3600</v>
+      <c r="H5" s="18">
+        <v>3600.04</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2514,8 +2598,8 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="H6" s="18">
+        <v>0.18</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2547,8 +2631,8 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
-        <v>3</v>
+      <c r="H7" s="18">
+        <v>2.96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2580,8 +2664,8 @@
       <c r="G8" s="3">
         <v>66.010000000000005</v>
       </c>
-      <c r="H8" s="2">
-        <v>3600</v>
+      <c r="H8" s="18">
+        <v>3600.04</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2613,8 +2697,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
-        <v>4</v>
+      <c r="H9" s="18">
+        <v>3.61</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2646,8 +2730,8 @@
       <c r="G10" s="3">
         <v>69.260000000000005</v>
       </c>
-      <c r="H10" s="2">
-        <v>3600</v>
+      <c r="H10" s="18">
+        <v>3600.04</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2679,8 +2763,8 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>8</v>
+      <c r="H11" s="18">
+        <v>8.18</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2712,7 +2796,7 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="18">
         <v>11.4</v>
       </c>
       <c r="N12" s="2"/>
@@ -2745,7 +2829,7 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="18">
         <v>47.36</v>
       </c>
       <c r="N13" s="2"/>
@@ -2778,7 +2862,7 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="18">
         <v>0.09</v>
       </c>
       <c r="N14" s="2"/>
@@ -2811,8 +2895,8 @@
       <c r="G15" s="3">
         <v>73.47</v>
       </c>
-      <c r="H15" s="2">
-        <v>3600</v>
+      <c r="H15" s="18">
+        <v>3600.04</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2844,8 +2928,8 @@
       <c r="G16" s="3">
         <v>36.46</v>
       </c>
-      <c r="H16" s="2">
-        <v>3600</v>
+      <c r="H16" s="18">
+        <v>3600.05</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2877,8 +2961,8 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
-        <v>4</v>
+      <c r="H17" s="18">
+        <v>3.98</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2910,8 +2994,8 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
-        <v>4</v>
+      <c r="H18" s="18">
+        <v>4.13</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2943,8 +3027,8 @@
       <c r="G19" s="3">
         <v>78.400000000000006</v>
       </c>
-      <c r="H19" s="2">
-        <v>3600</v>
+      <c r="H19" s="18">
+        <v>3600.05</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2976,8 +3060,8 @@
       <c r="G20" s="3">
         <v>33.770000000000003</v>
       </c>
-      <c r="H20" s="2">
-        <v>3600</v>
+      <c r="H20" s="18">
+        <v>3600.17</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3009,8 +3093,8 @@
       <c r="G21" s="3">
         <v>8.73</v>
       </c>
-      <c r="H21" s="2">
-        <v>3600</v>
+      <c r="H21" s="18">
+        <v>3600.17</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3042,8 +3126,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
-        <v>9</v>
+      <c r="H22" s="18">
+        <v>9.19</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3075,8 +3159,8 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
+      <c r="H23" s="18">
+        <v>1.45</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3108,8 +3192,8 @@
       <c r="G24" s="3">
         <v>68.77</v>
       </c>
-      <c r="H24" s="2">
-        <v>3600</v>
+      <c r="H24" s="18">
+        <v>3600.2</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3141,8 +3225,8 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
+      <c r="H25" s="18">
+        <v>1.35</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3174,8 +3258,8 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
+      <c r="H26" s="18">
+        <v>0.16</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3207,8 +3291,8 @@
       <c r="G27" s="3">
         <v>74.84</v>
       </c>
-      <c r="H27" s="2">
-        <v>3600</v>
+      <c r="H27" s="18">
+        <v>3600.07</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3240,8 +3324,8 @@
       <c r="G28" s="3">
         <v>47.11</v>
       </c>
-      <c r="H28" s="2">
-        <v>3600</v>
+      <c r="H28" s="18">
+        <v>3600.18</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3273,8 +3357,8 @@
       <c r="G29" s="3">
         <v>80.67</v>
       </c>
-      <c r="H29" s="2">
-        <v>3600</v>
+      <c r="H29" s="18">
+        <v>3600.15</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3306,8 +3390,8 @@
       <c r="G30" s="3">
         <v>45.91</v>
       </c>
-      <c r="H30" s="2">
-        <v>3600</v>
+      <c r="H30" s="18">
+        <v>3600.25</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3339,8 +3423,8 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
-        <v>21</v>
+      <c r="H31" s="18">
+        <v>21.28</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3372,8 +3456,8 @@
       <c r="G32" s="3">
         <v>70.73</v>
       </c>
-      <c r="H32" s="2">
-        <v>3600</v>
+      <c r="H32" s="18">
+        <v>3600.31</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3405,8 +3489,8 @@
       <c r="G33" s="3">
         <v>33.89</v>
       </c>
-      <c r="H33" s="2">
-        <v>3600</v>
+      <c r="H33" s="18">
+        <v>3600.35</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3438,8 +3522,8 @@
       <c r="G34" s="3">
         <v>44.48</v>
       </c>
-      <c r="H34" s="2">
-        <v>3600</v>
+      <c r="H34" s="18">
+        <v>3600.23</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3471,8 +3555,8 @@
       <c r="G35" s="3">
         <v>8.77</v>
       </c>
-      <c r="H35" s="2">
-        <v>3600</v>
+      <c r="H35" s="18">
+        <v>3600.19</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3504,8 +3588,8 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="2">
-        <v>2</v>
+      <c r="H36" s="18">
+        <v>2.35</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3537,8 +3621,8 @@
       <c r="G37" s="3">
         <v>80.91</v>
       </c>
-      <c r="H37" s="2">
-        <v>3600</v>
+      <c r="H37" s="18">
+        <v>3600.14</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3570,8 +3654,8 @@
       <c r="G38" s="3">
         <v>57.32</v>
       </c>
-      <c r="H38" s="2">
-        <v>3600</v>
+      <c r="H38" s="18">
+        <v>3600.1</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3603,8 +3687,8 @@
       <c r="G39" s="3">
         <v>40.81</v>
       </c>
-      <c r="H39" s="2">
-        <v>3600</v>
+      <c r="H39" s="18">
+        <v>3600.13</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3636,8 +3720,8 @@
       <c r="G40" s="3">
         <v>23.62</v>
       </c>
-      <c r="H40" s="2">
-        <v>3600</v>
+      <c r="H40" s="18">
+        <v>3600.13</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3669,8 +3753,8 @@
       <c r="G41" s="3">
         <v>16.149999999999999</v>
       </c>
-      <c r="H41" s="2">
-        <v>3600</v>
+      <c r="H41" s="18">
+        <v>3600.22</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3684,26 +3768,27 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>5.01</v>
       </c>
-      <c r="E42" s="2">
+      <c r="D42" s="6"/>
+      <c r="E42" s="7">
         <v>3492</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="7">
         <v>1357</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="8">
         <v>61.14</v>
       </c>
-      <c r="H42" s="2">
-        <v>3600</v>
+      <c r="H42" s="17">
+        <v>3600.31</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3717,20 +3802,21 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16">
         <f>AVERAGE(G3:G42)</f>
         <v>30.705750000000002</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="19">
         <f>AVERAGE(H3:H42)</f>
-        <v>2162.9212500000003</v>
+        <v>2163.0455000000006</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -3808,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF13606C-1C0B-4877-A0AE-725703DE4423}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3821,36 +3907,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3873,7 +3961,7 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>305.8</v>
       </c>
       <c r="L3" s="2"/>
@@ -3901,7 +3989,7 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="L4" s="2"/>
@@ -3929,8 +4017,8 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <v>3600.34</v>
+      <c r="H5" s="3">
+        <v>684.8</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -3957,7 +4045,7 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0.18</v>
       </c>
       <c r="L6" s="2"/>
@@ -3985,7 +4073,7 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>2.96</v>
       </c>
       <c r="L7" s="2"/>
@@ -4013,7 +4101,7 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>491.93</v>
       </c>
       <c r="L8" s="2"/>
@@ -4041,7 +4129,7 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>3.61</v>
       </c>
       <c r="L9" s="2"/>
@@ -4069,8 +4157,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>3600.15</v>
+      <c r="H10" s="3">
+        <v>958.15</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -4097,7 +4185,7 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>8.18</v>
       </c>
       <c r="L11" s="2"/>
@@ -4125,7 +4213,7 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>11.4</v>
       </c>
       <c r="L12" s="2"/>
@@ -4153,7 +4241,7 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>47.36</v>
       </c>
       <c r="L13" s="2"/>
@@ -4181,7 +4269,7 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0.09</v>
       </c>
       <c r="L14" s="2"/>
@@ -4209,8 +4297,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
-        <v>3600.11</v>
+      <c r="H15" s="3">
+        <v>605.28</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -4237,8 +4325,8 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
-        <v>3600.39</v>
+      <c r="H16" s="3">
+        <v>3243.39</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -4265,7 +4353,7 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>3.98</v>
       </c>
       <c r="L17" s="2"/>
@@ -4293,7 +4381,7 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>4.13</v>
       </c>
       <c r="L18" s="2"/>
@@ -4321,8 +4409,8 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
-        <v>3600.2</v>
+      <c r="H19" s="3">
+        <v>1854.22</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -4349,7 +4437,7 @@
       <c r="G20" s="3">
         <v>0.11</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>3600.43</v>
       </c>
       <c r="L20" s="2"/>
@@ -4377,7 +4465,7 @@
       <c r="G21" s="3">
         <v>2.93</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>3600.44</v>
       </c>
       <c r="L21" s="2"/>
@@ -4405,7 +4493,7 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>9.19</v>
       </c>
       <c r="L22" s="2"/>
@@ -4433,7 +4521,7 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>1.45</v>
       </c>
       <c r="L23" s="2"/>
@@ -4461,7 +4549,7 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>233.4</v>
       </c>
       <c r="L24" s="2"/>
@@ -4489,7 +4577,7 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>1.35</v>
       </c>
       <c r="L25" s="2"/>
@@ -4517,7 +4605,7 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>0.16</v>
       </c>
       <c r="L26" s="2"/>
@@ -4545,7 +4633,7 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>1394.54</v>
       </c>
       <c r="L27" s="2"/>
@@ -4573,7 +4661,7 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>3140.62</v>
       </c>
       <c r="L28" s="2"/>
@@ -4601,8 +4689,8 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="2">
-        <v>3600.25</v>
+      <c r="H29" s="3">
+        <v>1124.25</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -4629,7 +4717,7 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>1814.74</v>
       </c>
       <c r="L30" s="2"/>
@@ -4657,7 +4745,7 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>21.28</v>
       </c>
       <c r="L31" s="2"/>
@@ -4685,7 +4773,7 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>2771.17</v>
       </c>
       <c r="L32" s="2"/>
@@ -4713,7 +4801,7 @@
       <c r="G33" s="3">
         <v>0.33</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>3600.11</v>
       </c>
       <c r="L33" s="2"/>
@@ -4741,7 +4829,7 @@
       <c r="G34" s="3">
         <v>0.76</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>3600.17</v>
       </c>
       <c r="L34" s="2"/>
@@ -4769,7 +4857,7 @@
       <c r="G35" s="3">
         <v>6.55</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>3600.15</v>
       </c>
       <c r="L35" s="2"/>
@@ -4797,7 +4885,7 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>2.35</v>
       </c>
       <c r="L36" s="2"/>
@@ -4825,8 +4913,8 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="2">
-        <v>3600.19</v>
+      <c r="H37" s="3">
+        <v>1437.5</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4853,8 +4941,8 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="2">
-        <v>3600.48</v>
+      <c r="H38" s="3">
+        <v>2165.4699999999998</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4881,7 +4969,7 @@
       <c r="G39" s="3">
         <v>1.27</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>3600.24</v>
       </c>
       <c r="L39" s="2"/>
@@ -4909,7 +4997,7 @@
       <c r="G40" s="3">
         <v>5.88</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="3">
         <v>3600.24</v>
       </c>
       <c r="L40" s="2"/>
@@ -4937,7 +5025,7 @@
       <c r="G41" s="3">
         <v>9.73</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>3600.09</v>
       </c>
       <c r="L41" s="2"/>
@@ -4957,16 +5045,16 @@
         <v>5.01</v>
       </c>
       <c r="E42" s="2">
-        <v>4369</v>
+        <v>3366</v>
       </c>
       <c r="F42" s="2">
-        <v>3364.8</v>
+        <v>3366</v>
       </c>
       <c r="G42" s="3">
-        <v>22.98</v>
-      </c>
-      <c r="H42" s="2">
-        <v>219.49</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2008.05</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -4975,20 +5063,21 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16">
         <f>AVERAGE(G3:G42)</f>
-        <v>1.2635000000000001</v>
-      </c>
-      <c r="H43" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H43" s="16">
         <f>AVERAGE(H3:H42)</f>
-        <v>1702.34725</v>
+        <v>1328.8349999999998</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">

--- a/Results/DAHFJS.xlsx
+++ b/Results/DAHFJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\idm下载\Compressed\Instances-and-Results-for-e-FJSSP-master\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E539E7-BE51-4997-BA0F-8D2EB70FC336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF29970-15DD-4F72-805A-9EF80C339895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="10425" yWindow="2325" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="MILPV" sheetId="1" r:id="rId1"/>
@@ -786,22 +786,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H43"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -844,7 +844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>90</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="2"/>
@@ -2360,47 +2360,47 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P50" s="2"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P51" s="2"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P52" s="2"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P53" s="2"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="2"/>
@@ -2424,22 +2424,22 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="18"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="18"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -2479,7 +2479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>90</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="2"/>
@@ -3832,47 +3832,47 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P50" s="2"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P51" s="2"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P52" s="2"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P53" s="2"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="2"/>
@@ -3895,18 +3895,18 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -3942,7 +3942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>90</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>1328.8349999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="H44" s="2"/>
@@ -5089,47 +5089,47 @@
       <c r="N44" s="3"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
